--- a/dados_recursos_humanos/recursos_humanos.xlsx
+++ b/dados_recursos_humanos/recursos_humanos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Docentes_Ativos - TAB 83" sheetId="1" r:id="rId1"/>
@@ -360,9 +360,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,30 +383,6 @@
       <name val="Unb office"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Unb office"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Unb office"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Unb office"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Unb office"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -414,90 +390,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Unb office"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Unb office"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="UnB Office"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Unb office"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE46D0A"/>
-        <bgColor rgb="FFE46D0A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
-        <bgColor rgb="FFFBD4B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor rgb="FFFDE9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE46D0A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -505,547 +443,111 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFDE9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFDE9D9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFDE9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFDE9D9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFDE9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFDE9D9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFDE9D9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE46D0A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE46D0A"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE46D0A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE46D0A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE46D0A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE46D0A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE46D0A"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFDE9D9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFDE9D9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE46D0A"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE46D0A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE46D0A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE46D0A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE46D0A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE46D0A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE46D0A"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE46D0A"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFDE9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFDE9D9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE46D0A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE46D0A"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1368,75 +870,78 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="11" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <f t="shared" ref="G2:G20" si="0">SUM(C2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>156</v>
       </c>
       <c r="G4" s="7">
@@ -1444,8 +949,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="91" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1467,67 +972,67 @@
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f>SUM(C5:F5)</f>
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <v>9</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A7" s="92" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="11">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10">
         <v>818</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A9" s="92" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1549,73 +1054,73 @@
         <f t="shared" si="2"/>
         <v>828</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A10" s="92" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>38</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A11" s="92" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>13</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A12" s="92" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
         <v>17</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>1155</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>1173</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1637,71 +1142,71 @@
         <f t="shared" si="3"/>
         <v>1206</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A14" s="92" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>17</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>99</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>3</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A17" s="92" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1723,85 +1228,85 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="7">
         <v>7</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>11</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A19" s="92" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <v>2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="7">
         <v>6</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>3</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="7">
         <v>16</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>204</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1823,16 +1328,16 @@
         <f t="shared" si="5"/>
         <v>218</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <f t="shared" si="5"/>
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="9">
@@ -1851,7 +1356,7 @@
         <f t="shared" si="6"/>
         <v>2412</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f t="shared" si="6"/>
         <v>2594</v>
       </c>
@@ -1872,213 +1377,213 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="90">
+      <c r="B1" s="3">
         <v>2015</v>
       </c>
-      <c r="C1" s="90">
+      <c r="C1" s="3">
         <v>2016</v>
       </c>
-      <c r="D1" s="90">
+      <c r="D1" s="3">
         <v>2017</v>
       </c>
-      <c r="E1" s="90">
+      <c r="E1" s="3">
         <v>2018</v>
       </c>
-      <c r="F1" s="90">
+      <c r="F1" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="24">
         <v>1144</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="24">
         <v>1282</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="24">
         <v>1291</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="24">
         <f>E3</f>
         <v>1289</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="24">
         <f>F3</f>
         <v>1323</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="26">
         <v>1144</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="26">
         <v>1282</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="26">
         <v>1291</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="26">
         <v>1289</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="26">
         <v>1323</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="24">
         <v>1752</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="24">
         <f>SUM(C5:C6)</f>
         <v>1759</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="24">
         <v>1791</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="24">
         <f>SUM(E5:E6)</f>
         <v>1769</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="24">
         <f>SUM(F5:F6)</f>
         <v>1807</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="17">
         <v>475</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="17">
         <v>444</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="17">
         <v>446</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="17">
         <v>428</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="17">
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="26">
         <v>1277</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="26">
         <v>1315</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="26">
         <v>1345</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="26">
         <v>1341</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="26">
         <v>1414</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="15">
         <v>128</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="15">
         <f>SUM(C8:C9)</f>
         <v>118</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="15">
         <v>116</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="15">
         <f>SUM(E8:E9)</f>
         <v>112</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="15">
         <f>SUM(F8:F9)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="17">
         <v>37</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="17">
         <v>35</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="17">
         <v>36</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="17">
         <v>34</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="17">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A9" s="56" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="17">
         <v>91</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="17">
         <v>83</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="17">
         <v>80</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="17">
         <v>78</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="17">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="24">
         <v>3024</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="24">
         <f>SUM(C7,C4,C2)</f>
         <v>3159</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="24">
         <v>3198</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="24">
         <f>SUM(E3,E5,E6,E8,E9)</f>
         <v>3170</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="24">
         <f>SUM(F3,F5,F6,F8,F9)</f>
         <v>3233</v>
       </c>
@@ -2096,287 +1601,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="15">
         <f>B3</f>
         <v>11</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="15">
         <f t="shared" ref="C2:G2" si="0">C3</f>
         <v>486</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="15">
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="15">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="15">
         <f>F3</f>
         <v>119</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="27">
         <f>SUM(B2:G2)</f>
         <v>1323</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="17">
         <v>11</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="17">
         <v>486</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="17">
         <v>490</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="17">
         <v>195</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="17">
         <v>119</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="17">
         <v>22</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="26">
         <f>SUM(B3:G3)</f>
         <v>1323</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="15">
         <f t="shared" ref="B4:G4" si="1">SUM(B5:B6)</f>
         <v>89</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="15">
         <f t="shared" si="1"/>
         <v>581</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="15">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="15">
         <f t="shared" si="1"/>
         <v>372</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="15">
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="15">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="15">
         <f>SUM(B4:G4)</f>
         <v>1807</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="17">
         <v>34</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="17">
         <v>96</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="17">
         <v>167</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="17">
         <v>82</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="17">
         <v>11</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="15">
         <f t="shared" ref="H5:H9" si="2">SUM(B5:G5)</f>
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="17">
         <v>86</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="17">
         <v>547</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="17">
         <v>360</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="17">
         <v>205</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="17">
         <v>187</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="17">
         <v>29</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>1414</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="15">
         <f t="shared" ref="B7:G7" si="3">SUM(B8:B9)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="15">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="15">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="15">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="17">
         <v>13</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="17">
         <v>13</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="17">
         <v>2</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17">
         <v>5</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="17">
         <v>44</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="17">
         <v>17</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="17">
         <v>8</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="15">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="15">
         <f t="shared" ref="B10:H10" si="4">SUM(B7,B4,B2)</f>
         <v>100</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="15">
         <f t="shared" si="4"/>
         <v>1067</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="15">
         <f t="shared" si="4"/>
         <v>952</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="15">
         <f t="shared" si="4"/>
         <v>624</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="15">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="15">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="15">
         <f t="shared" si="4"/>
         <v>3233</v>
       </c>
@@ -2394,206 +1899,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="3">
         <v>2015</v>
       </c>
-      <c r="C1" s="47">
+      <c r="C1" s="3">
         <v>2016</v>
       </c>
-      <c r="D1" s="47">
+      <c r="D1" s="3">
         <v>2017</v>
       </c>
-      <c r="E1" s="47">
+      <c r="E1" s="3">
         <v>2018</v>
       </c>
-      <c r="F1" s="47">
+      <c r="F1" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="9">
         <v>429</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="9">
         <v>471</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="9">
         <v>482</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="9">
         <v>502</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="9">
         <f>F3</f>
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="7">
         <v>429</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="7">
         <v>471</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="7">
         <v>482</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="7">
         <v>502</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="7">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="9">
         <v>632</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="9">
         <v>693</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="9">
         <v>711</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="9">
         <v>739</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="9">
         <f>SUM(F5:F6)</f>
         <v>793</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="7">
         <v>249</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="7">
         <v>260</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="7">
         <v>264</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="7">
         <v>277</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="7">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="7">
         <v>383</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="7">
         <v>433</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="7">
         <v>447</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="7">
         <v>462</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="7">
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="9">
         <v>150</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="9">
         <v>141</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="9">
         <v>141</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="9">
         <v>138</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="9">
         <f>SUM(F8:F9)</f>
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="7">
         <v>19</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="7">
         <v>19</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="7">
         <v>19</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="7">
         <v>20</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="7">
         <v>131</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="7">
         <v>122</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="7">
         <v>122</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="7">
         <v>118</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="7">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="9">
         <v>1211</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="9">
         <v>1305</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="9">
         <v>1334</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="9">
         <v>1379</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="9">
         <f>SUM(F2,F4,F7)</f>
         <v>1451</v>
       </c>
@@ -2607,31 +2112,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A2" s="74">
+    <row r="2" spans="1:2">
+      <c r="A2" s="20">
         <v>2018</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="20">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A3" s="74">
+    <row r="3" spans="1:2">
+      <c r="A3" s="20">
         <v>2019</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="20">
         <v>293</v>
       </c>
     </row>
@@ -2642,23 +2149,23 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:9" ht="25.5">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1"/>
@@ -2667,17 +2174,17 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="67">
+    <row r="2" spans="1:9">
+      <c r="A2" s="17">
         <v>2015</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="20">
         <v>70</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="20">
         <v>42</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="20">
         <v>991</v>
       </c>
       <c r="E2" s="1"/>
@@ -2686,17 +2193,17 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="67">
+    <row r="3" spans="1:9">
+      <c r="A3" s="17">
         <v>2016</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="20">
         <v>221</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="20">
         <v>162</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="21">
         <v>2817</v>
       </c>
       <c r="E3" s="1"/>
@@ -2705,17 +2212,17 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="67">
+    <row r="4" spans="1:9">
+      <c r="A4" s="17">
         <v>2017</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="20">
         <v>122</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="20">
         <v>168</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="21">
         <v>1924</v>
       </c>
       <c r="E4" s="1"/>
@@ -2724,17 +2231,17 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="67">
+    <row r="5" spans="1:9">
+      <c r="A5" s="17">
         <v>2018</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="20">
         <v>122</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="20">
         <v>138</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="21">
         <v>1431</v>
       </c>
       <c r="E5" s="1"/>
@@ -2743,17 +2250,17 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="67">
+    <row r="6" spans="1:9">
+      <c r="A6" s="17">
         <v>2019</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="17">
         <v>87</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="17">
         <v>132</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="26">
         <v>1717</v>
       </c>
       <c r="E6" s="1"/>
@@ -2761,6 +2268,18 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2779,327 +2298,327 @@
     <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="80">
+      <c r="B1" s="30">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A3" s="83" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="32">
         <v>8349</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A5" s="83" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="32">
         <v>6363</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A6" s="83" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="32">
         <v>940</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A7" s="86" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="34">
         <f>SUM(B5:B6)</f>
         <v>7303</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A8" s="81" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A9" s="83" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="32">
         <v>5256</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A10" s="83" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="32">
         <v>1168</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="32">
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A12" s="83" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="32">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A13" s="83" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="32">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="32">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A15" s="83" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="32">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A16" s="83" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="32">
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="87">
+      <c r="B17" s="34">
         <f>SUM(B9:B16)</f>
         <v>7610</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A18" s="81" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A19" s="83" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="32">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A20" s="83" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="32">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A21" s="83" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="32">
         <v>798</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A22" s="83" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="32">
         <v>1474</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A23" s="86" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="34">
         <f>SUM(B19:B22)</f>
         <v>2627</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A24" s="81" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A25" s="83" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="32">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A26" s="83" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="32">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A27" s="83" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="32">
         <v>826</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A28" s="83" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A29" s="83" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A30" s="83" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A31" s="83" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="32">
         <v>1191</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A32" s="83" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A33" s="86" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="87">
+      <c r="B33" s="34">
         <f>SUM(B25:B32)</f>
         <v>2332</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A34" s="81" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A35" s="83" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="32">
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26.25" thickBot="1">
-      <c r="A36" s="83" t="s">
+    <row r="36" spans="1:2" ht="25.5">
+      <c r="A36" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="84">
+      <c r="B36" s="32">
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A37" s="83" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="84">
+      <c r="B37" s="32">
         <v>8058</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A38" s="83" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="84">
+      <c r="B38" s="32">
         <v>834</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A39" s="83" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="84">
+      <c r="B39" s="32">
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A40" s="86" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="87">
+      <c r="B40" s="34">
         <f>SUM(B35:B39)</f>
         <v>10177</v>
       </c>
@@ -3117,20 +2636,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:11" ht="26.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1"/>
@@ -3140,20 +2659,20 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>3</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="13">
         <v>3</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <f t="shared" ref="E2:E6" si="0">SUM(B2:D2)</f>
         <v>7</v>
       </c>
@@ -3164,20 +2683,20 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>3</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>6</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -3187,20 +2706,20 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>25</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>7</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>132</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
@@ -3210,20 +2729,20 @@
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>59</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>17</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>2336</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>2412</v>
       </c>
@@ -3233,23 +2752,23 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="14">
         <f t="shared" ref="B6:D6" si="1">SUM(B2:B5)</f>
         <v>90</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="14">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
         <v>2477</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>2594</v>
       </c>
@@ -3261,6 +2780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3272,244 +2792,244 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="5">
         <v>26</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="5">
         <v>93</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="5">
         <v>37</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="5">
         <f t="shared" ref="H2:H6" si="0">SUM(B2:G2)</f>
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="5">
         <v>225</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="5">
         <v>351</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="5">
         <v>194</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="5">
         <v>55</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
         <v>83</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="5">
         <v>542</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="5">
         <v>352</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="5">
         <v>199</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="5">
         <v>49</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
         <v>8</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="5">
         <v>47</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="5">
         <v>26</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="5">
         <v>30</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="5">
         <v>11</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
         <v>109</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="5">
         <v>113</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="5">
         <v>24</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="5">
         <v>13</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="8">
         <f t="shared" ref="B7:G7" si="1">SUM(B2:B6)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>928</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>779</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>529</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="8">
         <f>SUM(H2:H6)</f>
         <v>2594</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="5">
         <v>9</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="5">
         <v>161</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="5">
         <v>87</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="5">
         <v>28</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="5">
         <v>9</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="5">
         <f>SUM(B8:G8)</f>
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="15">
         <f t="shared" ref="B9:H9" si="2">SUM(B7:B8)</f>
         <v>9</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="15">
         <f t="shared" si="2"/>
         <v>364</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="15">
         <f t="shared" si="2"/>
         <v>1015</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="15">
         <f t="shared" si="2"/>
         <v>807</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="15">
         <f t="shared" si="2"/>
         <v>538</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="15">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="15">
         <f t="shared" si="2"/>
         <v>2890</v>
       </c>
@@ -3530,124 +3050,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90">
+      <c r="B1" s="3">
         <v>2015</v>
       </c>
-      <c r="C1" s="90">
+      <c r="C1" s="3">
         <v>2016</v>
       </c>
-      <c r="D1" s="90">
+      <c r="D1" s="3">
         <v>2017</v>
       </c>
-      <c r="E1" s="90">
+      <c r="E1" s="3">
         <v>2018</v>
       </c>
-      <c r="F1" s="90">
+      <c r="F1" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="7">
         <v>13</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="7">
         <v>12</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="7">
         <v>11</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="7">
         <v>11</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="10">
         <v>233</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="10">
         <v>200</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="10">
         <v>197</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="10">
         <v>182</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="10">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="7">
         <v>2206</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="7">
         <v>2272</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="7">
         <v>2341</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="7">
         <v>2373</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="7">
         <v>2412</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="16">
         <v>2456</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="16">
         <v>2492</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="16">
         <v>2557</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="16">
         <f>SUM(E2:E5)</f>
         <v>2573</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="16">
         <f>SUM(F2:F5)</f>
         <v>2594</v>
       </c>
@@ -3664,153 +3184,151 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90">
+      <c r="B1" s="3">
         <v>2015</v>
       </c>
-      <c r="C1" s="90">
+      <c r="C1" s="3">
         <v>2016</v>
       </c>
-      <c r="D1" s="90">
+      <c r="D1" s="3">
         <v>2017</v>
       </c>
-      <c r="E1" s="90">
+      <c r="E1" s="3">
         <v>2018</v>
       </c>
-      <c r="F1" s="90">
+      <c r="F1" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="7">
         <v>121</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="7">
         <v>142</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="7">
         <v>157</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="7">
         <v>159</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="7">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="7">
         <v>422</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="7">
         <v>462</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="7">
         <v>499</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="7">
         <v>710</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="7">
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="10">
         <v>1487</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="10">
         <v>1429</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="10">
         <v>1416</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="10">
         <v>1276</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="10">
         <v>1225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="7">
         <v>215</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="7">
         <v>159</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="7">
         <v>146</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="7">
         <v>128</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="7">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="7">
         <v>211</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="7">
         <v>300</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="7">
         <v>339</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="7">
         <v>300</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="7">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="16">
         <f>SUM(B2:B6)</f>
         <v>2456</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="16">
         <f>SUM(C2:C6)</f>
         <v>2492</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="16">
         <f>SUM(D2:D6)</f>
         <v>2557</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="16">
         <f>SUM(E2:E6)</f>
         <v>2573</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="16">
         <f>SUM(F2:F6)</f>
         <v>2594</v>
       </c>
@@ -3831,110 +3349,110 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="33">
+    <row r="2" spans="1:6">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="17">
         <v>86</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="13">
         <v>17</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="18">
         <v>2353</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="19">
         <v>2456</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="33">
+    <row r="3" spans="1:6">
+      <c r="A3" s="13">
         <v>2016</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="17">
         <v>85</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="13">
         <v>21</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="18">
         <v>2386</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="19">
         <v>2492</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A4" s="33">
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
         <v>2017</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="17">
         <v>93</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="13">
         <v>24</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="18">
         <v>2440</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="19">
         <v>2557</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A5" s="33">
+    <row r="5" spans="1:6">
+      <c r="A5" s="13">
         <v>2018</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="20">
         <v>95</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="20">
         <v>25</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="21">
         <v>2453</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="22">
         <v>2573</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A6" s="33">
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
         <v>2019</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="17">
         <v>90</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="13">
         <v>27</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="18">
         <v>2477</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="19">
         <v>2594</v>
       </c>
       <c r="F6" s="1"/>
@@ -3952,138 +3470,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="15">
         <v>2015</v>
       </c>
-      <c r="C1" s="41">
+      <c r="C1" s="15">
         <v>2016</v>
       </c>
-      <c r="D1" s="41">
+      <c r="D1" s="15">
         <v>2017</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="15">
         <v>2018</v>
       </c>
-      <c r="F1" s="41">
+      <c r="F1" s="15">
         <v>2019</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="17">
         <v>101</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="17">
         <v>95</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="17">
         <v>89</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="17">
         <v>87</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="17">
         <v>86</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="17">
         <v>38</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="17">
         <v>34</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="17">
         <v>33</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="17">
         <v>34</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="17">
         <v>31</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="17">
         <v>169</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="17">
         <v>169</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="17">
         <v>166</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="17">
         <v>167</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="17">
         <v>165</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="17">
         <v>529</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="17">
         <v>587</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="17">
         <v>617</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="17">
         <v>644</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="17">
         <v>679</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="15">
         <v>837</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="15">
         <v>885</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="15">
         <v>905</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="15">
         <v>932</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="15">
         <f>SUM(F2:F5)</f>
         <v>961</v>
       </c>
@@ -4104,161 +3622,161 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="3">
         <v>2015</v>
       </c>
-      <c r="C1" s="47">
+      <c r="C1" s="3">
         <v>2016</v>
       </c>
-      <c r="D1" s="47">
+      <c r="D1" s="3">
         <v>2017</v>
       </c>
-      <c r="E1" s="47">
+      <c r="E1" s="3">
         <v>2018</v>
       </c>
-      <c r="F1" s="47">
+      <c r="F1" s="3">
         <v>2019</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="7">
         <v>180</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="7">
         <v>185</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="7">
         <v>187</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="7">
         <v>193</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="7">
         <v>196</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="7">
         <v>85</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="7">
         <v>118</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="7">
         <v>131</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="7">
         <v>148</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="7">
         <v>173</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="7">
         <v>427</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="7">
         <v>439</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="7">
         <v>448</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="7">
         <v>453</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="7">
         <v>455</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="7">
         <v>141</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="7">
         <v>139</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="7">
         <v>135</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="7">
         <v>134</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="7">
         <v>133</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="7">
         <v>4</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="9">
         <v>837</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="9">
         <v>885</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="9">
         <v>905</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="9">
         <v>932</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="9">
         <f>SUM(F2:F6)</f>
         <v>961</v>
       </c>
@@ -4275,27 +3793,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:10" ht="51">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1"/>
@@ -4303,23 +3821,23 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A2" s="16">
+    <row r="2" spans="1:10">
+      <c r="A2" s="13">
         <v>2015</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>4</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="23">
         <v>68</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="23">
         <v>9</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="23">
         <v>756</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="14">
         <v>837</v>
       </c>
       <c r="G2" s="1"/>
@@ -4327,23 +3845,23 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A3" s="16">
+    <row r="3" spans="1:10">
+      <c r="A3" s="13">
         <v>2016</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>4</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="23">
         <v>69</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="23">
         <v>10</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="23">
         <v>802</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="14">
         <v>885</v>
       </c>
       <c r="G3" s="1"/>
@@ -4351,23 +3869,23 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A4" s="16">
+    <row r="4" spans="1:10">
+      <c r="A4" s="13">
         <v>2017</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>4</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="23">
         <v>69</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="23">
         <v>11</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="23">
         <v>821</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="14">
         <v>905</v>
       </c>
       <c r="G4" s="1"/>
@@ -4375,23 +3893,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="16">
+    <row r="5" spans="1:10">
+      <c r="A5" s="13">
         <v>2018</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="23">
         <v>67</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="23">
         <v>12</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="23">
         <v>852</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="14">
         <v>935</v>
       </c>
       <c r="G5" s="1"/>
@@ -4399,23 +3917,23 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A6" s="16">
+    <row r="6" spans="1:10">
+      <c r="A6" s="13">
         <v>2019</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="23">
         <v>68</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="23">
         <v>14</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="23">
         <v>875</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="14">
         <f>SUM(B6:E6)</f>
         <v>961</v>
       </c>

--- a/dados_recursos_humanos/recursos_humanos.xlsx
+++ b/dados_recursos_humanos/recursos_humanos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geisa\Documents\GitHub\trabalho\anuario2020\dados_recursos_humanos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnB\anuario2020\dados_recursos_humanos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Docentes_Ativos - TAB 83" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Saúde_Servidor - TAB 97'!$A$1:$B$40</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,17 +47,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
-  <si>
-    <t>Classe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
   <si>
     <t>Regime</t>
   </si>
   <si>
-    <t>Titulação</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -127,15 +121,9 @@
     <t>Substitutos e Visitantes</t>
   </si>
   <si>
-    <t>Ano</t>
-  </si>
-  <si>
     <t>Dedicação Exclusiva</t>
   </si>
   <si>
-    <t>Nível</t>
-  </si>
-  <si>
     <t>Superior</t>
   </si>
   <si>
@@ -170,9 +158,6 @@
   </si>
   <si>
     <t>Treinados</t>
-  </si>
-  <si>
-    <t>Indicadores</t>
   </si>
   <si>
     <r>
@@ -353,16 +338,31 @@
   <si>
     <t>Regime de Trabalho - Dedicação Exclusiva</t>
   </si>
+  <si>
+    <t>Unidade / Classe</t>
+  </si>
+  <si>
+    <t>Unidade / Titulação</t>
+  </si>
+  <si>
+    <t>Unidade / Indicadores</t>
+  </si>
+  <si>
+    <t>Unidade / Ano</t>
+  </si>
+  <si>
+    <t>Unidade / Nível</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,13 +426,32 @@
       <name val="Unb office"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,12 +463,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,10 +569,19 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -865,44 +894,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="11" style="4"/>
+    <col min="1" max="9" width="11" style="4"/>
+    <col min="10" max="10" width="7.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -915,12 +948,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -931,12 +964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -949,12 +982,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" ref="C5:F5" si="1">SUM(C2:C4)</f>
@@ -976,13 +1009,16 @@
         <f>SUM(C5:F5)</f>
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="5"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -994,13 +1030,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="5"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1012,13 +1051,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="5"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1030,13 +1072,16 @@
         <f t="shared" si="0"/>
         <v>818</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="5"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:F9" si="2">SUM(C6:C8)</f>
@@ -1058,13 +1103,16 @@
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="5"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1078,13 +1126,15 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" s="38"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1097,12 +1147,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1119,12 +1169,12 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" ref="C13:F13" si="3">SUM(C10:C12)</f>
@@ -1147,12 +1197,12 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1167,12 +1217,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1185,12 +1235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1205,12 +1255,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:18">
       <c r="A17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" ref="C17:F17" si="4">SUM(C14:C16)</f>
@@ -1233,12 +1283,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:18">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -1257,12 +1307,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:18">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -1280,13 +1330,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -1304,13 +1361,20 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" ref="C21:G21" si="5">SUM(C18:C20)</f>
@@ -1333,12 +1397,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:18">
       <c r="A22" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" ref="C22:G22" si="6">SUM(C21,C17,C13,C9,C5)</f>
@@ -1363,6 +1427,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1377,9 +1442,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3">
         <v>2015</v>
@@ -1399,7 +1464,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="24">
         <v>1144</v>
@@ -1421,7 +1486,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="26">
         <v>1144</v>
@@ -1441,7 +1506,7 @@
     </row>
     <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="24">
         <v>1752</v>
@@ -1464,7 +1529,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="17">
         <v>475</v>
@@ -1484,7 +1549,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="26">
         <v>1277</v>
@@ -1504,7 +1569,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="15">
         <v>128</v>
@@ -1527,7 +1592,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="17">
         <v>37</v>
@@ -1547,7 +1612,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="17">
         <v>91</v>
@@ -1567,7 +1632,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="24">
         <v>3024</v>
@@ -1603,33 +1668,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="15">
         <f>B3</f>
@@ -1662,7 +1727,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="17">
         <v>11</v>
@@ -1689,7 +1754,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" ref="B4:G4" si="1">SUM(B5:B6)</f>
@@ -1722,7 +1787,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="17">
         <v>3</v>
@@ -1749,7 +1814,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="17">
         <v>86</v>
@@ -1776,7 +1841,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="15">
         <f t="shared" ref="B7:G7" si="3">SUM(B8:B9)</f>
@@ -1809,7 +1874,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1832,7 +1897,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1855,7 +1920,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="15">
         <f t="shared" ref="B10:H10" si="4">SUM(B7,B4,B2)</f>
@@ -1899,9 +1964,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3">
         <v>2015</v>
@@ -1921,7 +1986,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="9">
         <v>429</v>
@@ -1942,7 +2007,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7">
         <v>429</v>
@@ -1962,7 +2027,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9">
         <v>632</v>
@@ -1983,7 +2048,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7">
         <v>249</v>
@@ -2003,7 +2068,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7">
         <v>383</v>
@@ -2023,7 +2088,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="9">
         <v>150</v>
@@ -2044,7 +2109,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7">
         <v>19</v>
@@ -2064,7 +2129,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7">
         <v>131</v>
@@ -2084,7 +2149,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>1211</v>
@@ -2112,18 +2177,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="26.25">
       <c r="A1" s="28" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2151,22 +2214,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2290,7 +2353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -2300,7 +2365,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B1" s="30">
         <v>2019</v>
@@ -2308,15 +2373,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>79</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="32">
         <v>8349</v>
@@ -2324,15 +2387,13 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>79</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" s="32">
         <v>6363</v>
@@ -2340,7 +2401,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6" s="32">
         <v>940</v>
@@ -2348,7 +2409,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B7" s="34">
         <f>SUM(B5:B6)</f>
@@ -2357,15 +2418,13 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>79</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="32">
         <v>5256</v>
@@ -2373,7 +2432,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="32">
         <v>1168</v>
@@ -2381,7 +2440,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" s="32">
         <v>452</v>
@@ -2389,7 +2448,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" s="32">
         <v>108</v>
@@ -2397,7 +2456,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="33" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" s="32">
         <v>177</v>
@@ -2405,7 +2464,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="32">
         <v>55</v>
@@ -2413,7 +2472,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" s="32">
         <v>29</v>
@@ -2421,7 +2480,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" s="32">
         <v>365</v>
@@ -2429,7 +2488,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" s="34">
         <f>SUM(B9:B16)</f>
@@ -2438,15 +2497,13 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>79</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B18" s="32"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="32">
         <v>343</v>
@@ -2454,7 +2511,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20" s="32">
         <v>12</v>
@@ -2462,7 +2519,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" s="32">
         <v>798</v>
@@ -2470,7 +2527,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="32">
         <v>1474</v>
@@ -2478,7 +2535,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23" s="34">
         <f>SUM(B19:B22)</f>
@@ -2487,15 +2544,13 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>79</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B24" s="32"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B25" s="32">
         <v>204</v>
@@ -2503,7 +2558,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B26" s="32">
         <v>88</v>
@@ -2511,7 +2566,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27" s="32">
         <v>826</v>
@@ -2519,7 +2574,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" s="32">
         <v>20</v>
@@ -2527,7 +2582,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -2535,7 +2590,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" s="32">
         <v>2</v>
@@ -2543,7 +2598,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B31" s="32">
         <v>1191</v>
@@ -2551,15 +2606,13 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="32">
-        <v>0</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B33" s="34">
         <f>SUM(B25:B32)</f>
@@ -2568,15 +2621,13 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>79</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B35" s="32">
         <v>553</v>
@@ -2584,7 +2635,7 @@
     </row>
     <row r="36" spans="1:2" ht="25.5">
       <c r="A36" s="33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B36" s="32">
         <v>389</v>
@@ -2592,7 +2643,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B37" s="32">
         <v>8058</v>
@@ -2600,7 +2651,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="33" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" s="32">
         <v>834</v>
@@ -2608,7 +2659,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B39" s="32">
         <v>343</v>
@@ -2616,7 +2667,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B40" s="34">
         <f>SUM(B35:B39)</f>
@@ -2630,27 +2681,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25">
+    <row r="1" spans="1:16" ht="26.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2659,9 +2715,9 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:16">
       <c r="A2" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="13">
         <v>3</v>
@@ -2683,9 +2739,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:16">
       <c r="A3" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="13">
         <v>3</v>
@@ -2706,9 +2762,9 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:16">
       <c r="A4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="13">
         <v>25</v>
@@ -2729,9 +2785,9 @@
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:16">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="13">
         <v>59</v>
@@ -2752,9 +2808,9 @@
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:16">
       <c r="A6" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" ref="B6:D6" si="1">SUM(B2:B5)</f>
@@ -2777,6 +2833,246 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="G11" s="4"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="G12" s="4"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="G13" s="4"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="G14" s="4"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="G15" s="5"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="G16" s="5"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="7:16">
+      <c r="G17" s="5"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="7:16">
+      <c r="G18" s="5"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="7:16">
+      <c r="G19" s="5"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="7:16">
+      <c r="G20" s="4"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="7:16">
+      <c r="G21" s="4"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="7:16">
+      <c r="G22" s="4"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="7:16">
+      <c r="G23" s="4"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="7:16">
+      <c r="G24" s="4"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="7:16">
+      <c r="G25" s="4"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="7:16">
+      <c r="G26" s="4"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="7:16">
+      <c r="G27" s="4"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="7:16">
+      <c r="G28" s="4"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="7:16">
+      <c r="G29" s="4"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+    </row>
+    <row r="30" spans="7:16">
+      <c r="G30" s="4"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2794,33 +3090,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2843,7 +3139,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
@@ -2868,7 +3164,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5">
@@ -2893,7 +3189,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
@@ -2918,7 +3214,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5">
@@ -2943,7 +3239,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" ref="B7:G7" si="1">SUM(B2:B6)</f>
@@ -2976,7 +3272,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>9</v>
@@ -3003,7 +3299,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="15">
         <f t="shared" ref="B9:H9" si="2">SUM(B7:B8)</f>
@@ -3050,9 +3346,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3">
         <v>2015</v>
@@ -3072,7 +3368,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7">
         <v>13</v>
@@ -3092,7 +3388,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -3112,7 +3408,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10">
         <v>233</v>
@@ -3132,7 +3428,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>2206</v>
@@ -3152,7 +3448,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="16">
         <v>2456</v>
@@ -3188,9 +3484,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3">
         <v>2015</v>
@@ -3210,7 +3506,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7">
         <v>121</v>
@@ -3230,7 +3526,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>422</v>
@@ -3250,7 +3546,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="10">
         <v>1487</v>
@@ -3270,7 +3566,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>215</v>
@@ -3290,7 +3586,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>211</v>
@@ -3310,7 +3606,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="16">
         <f>SUM(B2:B6)</f>
@@ -3351,19 +3647,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -3472,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B1" s="15">
         <v>2015</v>
@@ -3495,7 +3791,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="17">
         <v>101</v>
@@ -3518,7 +3814,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="17">
         <v>38</v>
@@ -3541,7 +3837,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="17">
         <v>169</v>
@@ -3564,7 +3860,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="17">
         <v>529</v>
@@ -3587,7 +3883,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="15">
         <v>837</v>
@@ -3622,9 +3918,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3">
         <v>2015</v>
@@ -3647,7 +3943,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7">
         <v>180</v>
@@ -3670,7 +3966,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>85</v>
@@ -3693,7 +3989,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7">
         <v>427</v>
@@ -3716,7 +4012,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>141</v>
@@ -3739,7 +4035,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -3762,7 +4058,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9">
         <v>837</v>
@@ -3799,22 +4095,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="51">
       <c r="A1" s="11" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
